--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101PrdbtzmrkDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101PrdbtzmrkDuplicateGamesList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  American Roulette</t>
   </si>
@@ -20,25 +20,25 @@
     <t>2  This game has duplicate Please check it :  Name =  Andar Bahar</t>
   </si>
   <si>
-    <t>3  This game has duplicate Please check it :  Name =  Baccarat A</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  Baccarat B</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  Baccarat Pro 2</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  Blackjack A</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  Blackjack B</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  Blackjack C</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  Blackjack C</t>
+    <t>3  This game has duplicate Please check it :  Name =  Andar Bahar</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Andar Bahar</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  Baccarat A</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  Baccarat B</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Blackjack A</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  Blackjack B</t>
   </si>
   <si>
     <t>10  This game has duplicate Please check it :  Name =  Blackjack C</t>
@@ -80,49 +80,34 @@
     <t>22  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>23  This game has duplicate Please check it :  Name =  First Person American Roulette</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Immersive Roulette</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  Instant Roulette</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  Lobby</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  No Comm Speed Baccarat 1</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  No Commission Baccarat</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Speed Roulette</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Tesla</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Unlimited Blackjack</t>
+    <t>23  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Lobby</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  No Comm Speed Baccarat 1</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  No Commission Baccarat</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Speed Roulette</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Teen Patti</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Unlimited Blackjack</t>
   </si>
 </sst>
 </file>
@@ -167,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,31 +321,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
